--- a/物流/郴州物流2020.xlsx
+++ b/物流/郴州物流2020.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB93D9CE-A445-407D-AA87-D8FCED8E86F4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391F607A-F5EF-4890-A604-ACEACC305A30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="440" uniqueCount="48">
   <si>
     <t>总计</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,7 +307,7 @@
     <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
     <numFmt numFmtId="177" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,6 +359,22 @@
       <sz val="11"/>
       <name val="DengXian"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -477,7 +493,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -612,6 +628,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -917,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -930,9 +955,11 @@
     <col min="3" max="3" width="15.625" style="5" customWidth="1"/>
     <col min="4" max="4" width="15" style="28" customWidth="1"/>
     <col min="6" max="6" width="13.75" style="44" customWidth="1"/>
+    <col min="13" max="13" width="16.25" customWidth="1"/>
+    <col min="14" max="14" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:14">
       <c r="A1" s="11" t="s">
         <v>44</v>
       </c>
@@ -949,7 +976,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:14">
       <c r="A2" s="30" t="s">
         <v>32</v>
       </c>
@@ -966,7 +993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:14">
       <c r="A3" s="7" t="s">
         <v>33</v>
       </c>
@@ -983,7 +1010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:14">
       <c r="A4" s="7" t="s">
         <v>34</v>
       </c>
@@ -1000,7 +1027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:14">
       <c r="A5" s="7" t="s">
         <v>35</v>
       </c>
@@ -1017,7 +1044,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:14">
       <c r="A6" s="7" t="s">
         <v>36</v>
       </c>
@@ -1034,7 +1061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:14">
       <c r="A7" s="7" t="s">
         <v>37</v>
       </c>
@@ -1051,7 +1078,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:14">
       <c r="A8" s="7" t="s">
         <v>38</v>
       </c>
@@ -1068,7 +1095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:14">
       <c r="A9" s="7" t="s">
         <v>39</v>
       </c>
@@ -1085,7 +1112,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:14">
       <c r="A10" s="7" t="s">
         <v>40</v>
       </c>
@@ -1101,8 +1128,14 @@
       <c r="E10" s="7">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
+      <c r="M10" s="2">
+        <v>43831</v>
+      </c>
+      <c r="N10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
       <c r="A11" s="7" t="s">
         <v>41</v>
       </c>
@@ -1118,8 +1151,14 @@
       <c r="E11" s="42">
         <v>16</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
+      <c r="M11" s="2">
+        <v>43862</v>
+      </c>
+      <c r="N11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
       <c r="A12" s="7" t="s">
         <v>42</v>
       </c>
@@ -1135,8 +1174,14 @@
       <c r="E12" s="7">
         <v>23</v>
       </c>
-    </row>
-    <row r="13" spans="1:6">
+      <c r="M12" s="2">
+        <v>43891</v>
+      </c>
+      <c r="N12" s="4">
+        <v>93230.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
       <c r="A13" s="7" t="s">
         <v>43</v>
       </c>
@@ -1152,8 +1197,14 @@
       <c r="E13" s="43">
         <v>17</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
+      <c r="M13" s="2">
+        <v>43922</v>
+      </c>
+      <c r="N13" s="4">
+        <v>144090.66</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14">
       <c r="A14" s="11" t="s">
         <v>31</v>
       </c>
@@ -1176,6 +1227,100 @@
       <c r="F14" s="44">
         <v>12</v>
       </c>
+      <c r="M14" s="2">
+        <v>43952</v>
+      </c>
+      <c r="N14" s="4">
+        <v>181994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="M15" s="2">
+        <v>43983</v>
+      </c>
+      <c r="N15" s="4">
+        <v>162283.25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="M16" s="2">
+        <v>44013</v>
+      </c>
+      <c r="N16" s="4">
+        <v>160619.1</v>
+      </c>
+    </row>
+    <row r="17" spans="13:14">
+      <c r="M17" s="2">
+        <v>44044</v>
+      </c>
+      <c r="N17" s="4">
+        <v>169209</v>
+      </c>
+    </row>
+    <row r="18" spans="13:14">
+      <c r="M18" s="2">
+        <v>44075</v>
+      </c>
+      <c r="N18" s="4">
+        <v>167927</v>
+      </c>
+    </row>
+    <row r="19" spans="13:14">
+      <c r="M19" s="2">
+        <v>44105</v>
+      </c>
+      <c r="N19" s="4">
+        <v>184303.61</v>
+      </c>
+    </row>
+    <row r="20" spans="13:14">
+      <c r="M20" s="2">
+        <v>44136</v>
+      </c>
+      <c r="N20" s="4">
+        <v>171538.55</v>
+      </c>
+    </row>
+    <row r="21" spans="13:14">
+      <c r="M21" s="2">
+        <v>44166</v>
+      </c>
+      <c r="N21" s="4">
+        <v>199349.11</v>
+      </c>
+    </row>
+    <row r="22" spans="13:14">
+      <c r="M22" s="2">
+        <v>44197</v>
+      </c>
+      <c r="N22" s="4">
+        <v>229649</v>
+      </c>
+    </row>
+    <row r="23" spans="13:14">
+      <c r="M23" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="N23" s="47">
+        <f>SUM(N10:N22)</f>
+        <v>1864193.7800000003</v>
+      </c>
+    </row>
+    <row r="24" spans="13:14">
+      <c r="M24" s="45"/>
+    </row>
+    <row r="25" spans="13:14">
+      <c r="M25" s="45"/>
+    </row>
+    <row r="26" spans="13:14">
+      <c r="M26" s="45"/>
+    </row>
+    <row r="27" spans="13:14">
+      <c r="M27" s="45"/>
+    </row>
+    <row r="28" spans="13:14">
+      <c r="M28" s="45"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/物流/郴州物流2020.xlsx
+++ b/物流/郴州物流2020.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{391F607A-F5EF-4890-A604-ACEACC305A30}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2BD9513-2EE5-4895-BC42-99FA25CC8170}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5130" yWindow="3300" windowWidth="21600" windowHeight="8895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="年度汇总" sheetId="9" r:id="rId1"/>
@@ -944,8 +944,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView tabSelected="1" topLeftCell="D10" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -1225,7 +1225,7 @@
         <v>151</v>
       </c>
       <c r="F14" s="44">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="M14" s="2">
         <v>43952</v>
